--- a/SlowkoukProject/RejestrSprintu_Slowkouk.xlsx
+++ b/SlowkoukProject/RejestrSprintu_Slowkouk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="663" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="663" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Podsumowanie" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,6 @@
     <sheet name="Ukończone - zadania" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rejestr sprintu - wymagania'!$A$1:$T$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Rejestr sprintu - zadania'!$A$1:$F$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ukończone - wymagania'!$A$1:$U$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ukończone - zadania'!$A$1:$F$63</definedName>
     <definedName name="__xlnm._FilterDatabase" localSheetId="1">'Rejestr sprintu - wymagania'!$A$1:$T$93</definedName>
     <definedName name="__xlnm._FilterDatabase" localSheetId="3">'Rejestr sprintu - zadania'!$A$1:$F$63</definedName>
     <definedName name="__xlnm._FilterDatabase" localSheetId="2">'Ukończone - wymagania'!$A$1:$U$100</definedName>
@@ -26,7 +22,10 @@
     <definedName name="__xlnm._FilterDatabase_1_1">'Ukończone - wymagania'!$A$1:$U$100</definedName>
     <definedName name="__xlnm._FilterDatabase_2">'Rejestr sprintu - zadania'!$A$1:$F$63</definedName>
     <definedName name="__xlnm._FilterDatabase_3">'Ukończone - zadania'!$A$1:$F$63</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">Podsumowanie!$A$1:$T$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rejestr sprintu - wymagania'!$A$1:$T$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Rejestr sprintu - zadania'!$A$1:$F$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ukończone - wymagania'!$A$1:$U$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ukończone - zadania'!$A$1:$F$63</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">Podsumowanie!$A$1:$T$70</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Pozostała pracochłonność:</t>
   </si>
@@ -181,6 +180,48 @@
   </si>
   <si>
     <t>Zaimplementowanie zegara pilnującego systemu powtórek</t>
+  </si>
+  <si>
+    <t>Rafał Wojnecki</t>
+  </si>
+  <si>
+    <t>Artur Pospiech</t>
+  </si>
+  <si>
+    <t>Rafał Wojnecki, Maciej Kujawa, Rafał Chmara</t>
+  </si>
+  <si>
+    <t>Artur Pospiech, Rafał Chmara</t>
+  </si>
+  <si>
+    <t>Rafał Wojnecki, Maciej Kujawa</t>
+  </si>
+  <si>
+    <t>Rafał Wojnecki, Rafał Chmara</t>
+  </si>
+  <si>
+    <t>Maciej Kujawa, Artur Pospiech, Rafał Wojnecki</t>
+  </si>
+  <si>
+    <t>Rafał Wojnecki, Rafał Chmara, Maciej Kujawa</t>
+  </si>
+  <si>
+    <t>Rafał Chmara, Maciej Kujawa, Rafał Wojnecki</t>
+  </si>
+  <si>
+    <t>TESTY AKCEPTACYJNE OBOK, BO SPOSÓB POKAZU MIELIŚMY TAKI JAKI MIELIŚMY</t>
+  </si>
+  <si>
+    <t>Użytkownik wybiera opcję modyfikacji bazy słówek z menu, po wybraniu wstawienia pustego słowa jest stosowny komunikat, użytkownik wybiera usunięcie wybranego słowa - aplikacja pyta go o potwierdzenie. W przypadku jego braku, zaniecha usunięcia</t>
+  </si>
+  <si>
+    <t>Akceptacja - aplikacja zawiera poprawne dane, kryterium poprawności definiuje się jako zgodność z klasami projektu i brak pustych encji w tabelach wykorzystywanych przez aplikację</t>
+  </si>
+  <si>
+    <t>akceptacja - użytkownik po wybraniu możliwości testu może wybrać zestaw słów, którego będzie dotyczył. Po maksymalnie dziesięciu kolejnych wyborach tego samego zestawu, słowa mają się pojawić w innej kolejności. Po zakończeniu testu muszą pojawić się informacje o błędach i poprawnych odpowiedziach w teście.</t>
+  </si>
+  <si>
+    <t>użytkownik może wybrać język aplikacji, wybierając go z listy rozwijalnej wchodząc wcześniej do menu opcje</t>
   </si>
 </sst>
 </file>
@@ -753,7 +794,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM('Ukończone - wymagania'!D2:D998)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="1">
@@ -762,7 +803,7 @@
       </c>
       <c r="B3" s="2">
         <f>B2+B1</f>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -777,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -789,7 +830,8 @@
     <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="39.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="17.140625" style="3"/>
+    <col min="7" max="7" width="34.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="17.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="5" customFormat="1">
@@ -826,7 +868,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="47.1" customHeight="1">
+    <row r="2" spans="1:20" ht="53.25" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -842,8 +884,14 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="12.75" customHeight="1">
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="41.25" customHeight="1">
       <c r="A3" s="6">
         <v>9</v>
       </c>
@@ -859,8 +907,11 @@
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="12.75" customHeight="1">
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="38.25" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -877,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="12.75" customHeight="1">
+    <row r="5" spans="1:20" ht="40.5" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -894,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="12.75" customHeight="1">
+    <row r="6" spans="1:20" ht="75.75" customHeight="1">
       <c r="A6" s="6">
         <v>10</v>
       </c>
@@ -910,8 +961,11 @@
       <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1">
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="42.75" customHeight="1">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -928,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="12.75" customHeight="1">
+    <row r="8" spans="1:20" ht="42.75" customHeight="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -944,8 +998,11 @@
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="12.75" customHeight="1">
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="46.5" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -962,7 +1019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="12.75" customHeight="1">
+    <row r="10" spans="1:20" ht="50.25" customHeight="1">
       <c r="A10" s="6">
         <v>11</v>
       </c>
@@ -979,7 +1036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="12.75" customHeight="1">
+    <row r="11" spans="1:20" ht="69.75" customHeight="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -996,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="12.75" customHeight="1">
+    <row r="12" spans="1:20" ht="63" customHeight="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1260,7 +1317,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:T93"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1270,7 +1327,7 @@
   <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1319,29 +1376,59 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="6">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="6">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1703,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1766,6 +1853,9 @@
         <f>VLOOKUP(C2,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Przygotowanie bazy słówek</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="15">
@@ -1781,6 +1871,9 @@
         <f>VLOOKUP(C3,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Przygotowanie bazy słówek</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="15">
@@ -1796,6 +1889,9 @@
         <f>VLOOKUP(C4,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Przygotowanie bazy słówek</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" s="15">
@@ -1811,6 +1907,9 @@
         <f>VLOOKUP(C5,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Wyświetlanie powiadomień</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
       <c r="A6" s="15">
@@ -1826,6 +1925,9 @@
         <f>VLOOKUP(C6,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Wyświetlanie powiadomień</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="15">
@@ -1856,6 +1958,9 @@
         <f>VLOOKUP(C8,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Wyszukiwarka odnośnie słówek</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
       <c r="A9" s="16">
@@ -1901,6 +2006,9 @@
         <f>VLOOKUP(C11,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Zarządzanie listą do nauki</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
       <c r="A12" s="16">
@@ -1916,6 +2024,9 @@
         <f>VLOOKUP(C12,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Zarządzanie listą do nauki</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="A13" s="16">
@@ -1931,6 +2042,9 @@
         <f>VLOOKUP(C13,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Wyświetlanie powiadomień</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="12.75" customHeight="1">
       <c r="A14" s="16">
@@ -1946,6 +2060,9 @@
         <f>VLOOKUP(C14,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Wyświetlanie powiadomień</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="12.75" customHeight="1">
       <c r="A15" s="16">
@@ -1961,6 +2078,9 @@
         <f>VLOOKUP(C15,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Wyświetlanie powiadomień</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1">
       <c r="A16" s="16">
@@ -1975,6 +2095,9 @@
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(C16,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
         <v>Przygotowanie bazy słówek</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
@@ -2424,7 +2547,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:F63"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2434,7 +2557,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -2483,75 +2606,187 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D2" s="1" t="e">
+      <c r="A2" s="16">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="str">
         <f>VLOOKUP(C2,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Zarządzanie listą do nauki</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D3" s="1" t="e">
+      <c r="A3" s="16">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <f>VLOOKUP(C3,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Wyświetlanie powiadomień</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D4" s="1" t="e">
+      <c r="A4" s="16">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <f>VLOOKUP(C4,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Wyświetlanie powiadomień</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D5" s="1" t="e">
+      <c r="A5" s="16">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f>VLOOKUP(C5,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Wyświetlanie powiadomień</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D6" s="1" t="e">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f>VLOOKUP(C6,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Przygotowanie bazy słówek</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="D7" s="1" t="e">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f>VLOOKUP(C7,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Przygotowanie bazy słówek</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="D8" s="1" t="e">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <f>VLOOKUP(C8,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Przygotowanie bazy słówek</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="D9" s="1" t="e">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="str">
         <f>VLOOKUP(C9,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Wyświetlanie powiadomień</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="D10" s="1" t="e">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <f>VLOOKUP(C10,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Wyświetlanie powiadomień</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="D11" s="1" t="e">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="str">
         <f>VLOOKUP(C11,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
+        <v>Zarządzanie listą do nauki</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="D12" s="1" t="e">
-        <f>VLOOKUP(C12,'Rejestr sprintu - wymagania'!$A$2:$B$100,2,1)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="A12" s="16"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="A13" s="12"/>
